--- a/results-store-6.xlsx
+++ b/results-store-6.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{669771E8-C365-4E3C-AC13-3FCDBF7D7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D4034D-446F-425A-A536-1D008FDCAD85}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="8_{669771E8-C365-4E3C-AC13-3FCDBF7D7924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1EA6CBF-B539-448F-B99F-70484F95F9A0}"/>
   <bookViews>
-    <workbookView xWindow="-28890" yWindow="915" windowWidth="28650" windowHeight="14550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27975" yWindow="360" windowWidth="28650" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="8" r:id="rId1"/>
-    <sheet name="train_per_model" sheetId="1" r:id="rId2"/>
-    <sheet name="train" sheetId="2" r:id="rId3"/>
-    <sheet name="test_per_model" sheetId="3" r:id="rId4"/>
-    <sheet name="test_per_K" sheetId="6" r:id="rId5"/>
+    <sheet name="train_per_model" sheetId="1" r:id="rId1"/>
+    <sheet name="train" sheetId="2" r:id="rId2"/>
+    <sheet name="test_per_model" sheetId="3" r:id="rId3"/>
+    <sheet name="test_per_K" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="121">
   <si>
     <t>layers</t>
   </si>
@@ -291,36 +291,6 @@
     <t>Setting hidden layers = 2, units = TESTING, epochs = 10, batch_size = 64, dropout = 0, optimiser = adamax, l2_factor = 0.0002, activation = relu, initialiser = glorot_uniform</t>
   </si>
   <si>
-    <t>train_per_model</t>
-  </si>
-  <si>
-    <t>Number of hidden layers in the model</t>
-  </si>
-  <si>
-    <t>General meaning</t>
-  </si>
-  <si>
-    <t>Columns</t>
-  </si>
-  <si>
-    <t>Summarising the train sheet, using means, mins or sums as appropriate</t>
-  </si>
-  <si>
-    <t>Index of the set of parameters being tested</t>
-  </si>
-  <si>
-    <t>Details of the parameters being tested</t>
-  </si>
-  <si>
-    <t>The training run with the lowest test_loss</t>
-  </si>
-  <si>
-    <t>Mean number of training inputs per training run</t>
-  </si>
-  <si>
-    <t>Number of training runs (and therefore number of built models) being summarised for this row</t>
-  </si>
-  <si>
     <t>epochs=10, batch_size=64, units=c(200, 100), L2_factor=0, activation=relu, initializer=glorot_uniform, dropout=0, optimizer=adamax</t>
   </si>
   <si>
@@ -355,36 +325,6 @@
   </si>
   <si>
     <t>The winner is 2 hidden layers - 25% lower losses than 1 layer (though 140% higher training time), lower loss than 3 or 4 and faster training/testing times as well</t>
-  </si>
-  <si>
-    <t>Sum of the time taken to train all of the models in this row</t>
-  </si>
-  <si>
-    <t>Mean R-squared from testing all data</t>
-  </si>
-  <si>
-    <t>Sd of the mean from testing all data - would show if the mean_err is important</t>
-  </si>
-  <si>
-    <t>Proportion of the training data held back for the val_loss calculation (not important after change to use test_loss instead of val_loss)</t>
-  </si>
-  <si>
-    <t>Mean error from testing all training data - would show a bias</t>
-  </si>
-  <si>
-    <t>Mean time taken to recalc an output for all of the training input examples</t>
-  </si>
-  <si>
-    <t>Mean MSE loss on training data held back for validation</t>
-  </si>
-  <si>
-    <t>Mean MSE loss on all training data</t>
-  </si>
-  <si>
-    <t>Mean MSE loss on additional set of always noiseless testing data</t>
-  </si>
-  <si>
-    <t>Minimum MSE loss on additional set of always noiseless testing data</t>
   </si>
   <si>
     <t>epochs=10, batch_size=64, units=c(400, 200), L2_factor=2e-04, activation=relu, initializer=glorot_uniform, dropout=0, optimizer=adamax</t>
@@ -461,6 +401,9 @@
   <si>
     <t>epochs=40, batch_size=64, units=c(100, 100), L2_factor=2e-04, activation=relu, initializer=glorot_normal, dropout=0, optimizer=adamax, momentum=0</t>
   </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +416,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,24 +441,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -558,8 +483,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -879,181 +802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F352D5-CEA0-4D56-BB10-50BAA8F58F7B}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1204"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:P111"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:P120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +1955,7 @@
         <v>2.8350727260195301E-4</v>
       </c>
       <c r="P36" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2252,7 +2005,7 @@
         <v>3.31169909313297E-4</v>
       </c>
       <c r="P37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -2302,7 +2055,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="P38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -2352,12 +2105,12 @@
         <v>1.73038325908853E-4</v>
       </c>
       <c r="P39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -2382,7 +2135,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -2505,7 +2258,7 @@
         <v>1.4685817979386099E-4</v>
       </c>
       <c r="P45" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -2555,7 +2308,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="P46" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2605,7 +2358,7 @@
         <v>1.4865084834444901E-4</v>
       </c>
       <c r="P47" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -2655,12 +2408,12 @@
         <v>1.8399996160476401E-4</v>
       </c>
       <c r="P48" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
@@ -2808,7 +2561,7 @@
         <v>2.2220838940200101E-4</v>
       </c>
       <c r="P54" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2858,7 +2611,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="P55" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2908,7 +2661,7 @@
         <v>1.7535538674177199E-4</v>
       </c>
       <c r="P56" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -2958,12 +2711,12 @@
         <v>2.05576721151061E-4</v>
       </c>
       <c r="P57" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G58"/>
       <c r="H58"/>
@@ -3111,7 +2864,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="P63" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3161,7 +2914,7 @@
         <v>1.5890158510891401E-4</v>
       </c>
       <c r="P64" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -3211,7 +2964,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="P65" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3261,7 +3014,7 @@
         <v>1.6543724403386399E-4</v>
       </c>
       <c r="P66" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -3311,7 +3064,7 @@
         <v>1.7147759779743399E-4</v>
       </c>
       <c r="P67" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -3361,12 +3114,12 @@
         <v>1.6411979602608701E-4</v>
       </c>
       <c r="P68" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -3391,7 +3144,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -3514,7 +3267,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="P74" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -3564,7 +3317,7 @@
         <v>5.0167822621875204E-4</v>
       </c>
       <c r="P75" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -3614,12 +3367,12 @@
         <v>4.6875706630300501E-4</v>
       </c>
       <c r="P76" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G77"/>
       <c r="H77"/>
@@ -3644,7 +3397,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
@@ -3767,7 +3520,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="P82" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -3817,7 +3570,7 @@
         <v>1.5704714191216399E-4</v>
       </c>
       <c r="P83" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -3867,7 +3620,7 @@
         <v>2.0717938795484299E-4</v>
       </c>
       <c r="P84" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -3917,12 +3670,12 @@
         <v>1.7389954760559299E-4</v>
       </c>
       <c r="P85" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
@@ -3947,7 +3700,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -4070,7 +3823,7 @@
         <v>1.83036115604429E-4</v>
       </c>
       <c r="P91" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -4120,7 +3873,7 @@
         <v>1.5704714191216399E-4</v>
       </c>
       <c r="P92" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -4170,7 +3923,7 @@
         <v>1.2515002457192699E-4</v>
       </c>
       <c r="P93" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -4220,7 +3973,7 @@
         <v>9.5897236797107103E-5</v>
       </c>
       <c r="P94" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -4270,12 +4023,12 @@
         <v>1.0876934202715799E-4</v>
       </c>
       <c r="P95" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -4316,7 +4069,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -4439,7 +4192,7 @@
         <v>1.6261251150844801E-4</v>
       </c>
       <c r="P102" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -4553,7 +4306,7 @@
         <v>1.40745653146875E-4</v>
       </c>
       <c r="P105" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -4667,7 +4420,7 @@
         <v>1.0900000000000001E-4</v>
       </c>
       <c r="P108" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,7 +4534,7 @@
         <v>1.0834485465652701E-4</v>
       </c>
       <c r="P111" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -4808,7 +4561,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -4917,7 +4670,7 @@
         <v>1.0900000000000001E-4</v>
       </c>
       <c r="P116" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -4932,6 +4685,9 @@
       <c r="O117" s="2"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -4943,26 +4699,104 @@
       <c r="O118" s="2"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G119"/>
-      <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" t="s">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>5</v>
+      </c>
+      <c r="I119" t="s">
+        <v>6</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P119" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>708393.75</v>
+      </c>
+      <c r="F120">
+        <v>0.3</v>
+      </c>
+      <c r="G120">
+        <v>0.54138695931751302</v>
+      </c>
+      <c r="H120">
+        <v>11.7162515436055</v>
+      </c>
+      <c r="I120">
+        <v>0.74140537583662103</v>
+      </c>
+      <c r="J120" s="3">
+        <v>194.02999999999901</v>
+      </c>
+      <c r="K120" s="3">
+        <v>10.452499999999899</v>
+      </c>
+      <c r="L120" s="2">
+        <v>2.40204613655805E-2</v>
+      </c>
+      <c r="M120" s="2">
+        <v>2.4348790269909899E-2</v>
+      </c>
+      <c r="N120" s="2">
+        <v>2.39587998323501E-4</v>
+      </c>
+      <c r="O120" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="P120" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G121"/>
@@ -16894,12 +16728,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:N269"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J245" sqref="J245"/>
+    <sheetView topLeftCell="A233" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:N269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19134,7 +18968,7 @@
         <v>3.2551862894475799E-4</v>
       </c>
       <c r="N72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -19178,7 +19012,7 @@
         <v>2.8350727260195301E-4</v>
       </c>
       <c r="N73" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -19222,7 +19056,7 @@
         <v>4.7281643773633203E-4</v>
       </c>
       <c r="N74" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -19266,7 +19100,7 @@
         <v>3.2743654596136099E-4</v>
       </c>
       <c r="N75" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -19310,7 +19144,7 @@
         <v>4.02921492952618E-4</v>
       </c>
       <c r="N76" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -19354,7 +19188,7 @@
         <v>3.31169909313297E-4</v>
       </c>
       <c r="N77" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -19398,7 +19232,7 @@
         <v>4.0697849023265802E-4</v>
       </c>
       <c r="N78" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -19442,7 +19276,7 @@
         <v>5.5618607231203805E-4</v>
       </c>
       <c r="N79" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -19486,7 +19320,7 @@
         <v>1.60401740743266E-4</v>
       </c>
       <c r="N80" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -19530,7 +19364,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="N81" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -19574,7 +19408,7 @@
         <v>2.2332030421518499E-4</v>
       </c>
       <c r="N82" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -19618,7 +19452,7 @@
         <v>2.2719909788648999E-4</v>
       </c>
       <c r="N83" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -19662,7 +19496,7 @@
         <v>1.73038325908853E-4</v>
       </c>
       <c r="N84" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -19706,7 +19540,7 @@
         <v>2.3985846353679201E-4</v>
       </c>
       <c r="N85" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -19750,7 +19584,7 @@
         <v>2.6362088826415299E-4</v>
       </c>
       <c r="N86" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -19794,12 +19628,12 @@
         <v>3.62055473358367E-4</v>
       </c>
       <c r="N87" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -19892,7 +19726,7 @@
         <v>1.4685817979386099E-4</v>
       </c>
       <c r="N92" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -19936,7 +19770,7 @@
         <v>2.7584943702086898E-4</v>
       </c>
       <c r="N93" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -19980,7 +19814,7 @@
         <v>2.12867358023688E-4</v>
       </c>
       <c r="N94" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -20024,7 +19858,7 @@
         <v>2.82379040144348E-4</v>
       </c>
       <c r="N95" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -20068,7 +19902,7 @@
         <v>1.60401740743266E-4</v>
       </c>
       <c r="N96" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -20112,7 +19946,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="N97" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -20156,7 +19990,7 @@
         <v>2.2332030421518499E-4</v>
       </c>
       <c r="N98" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -20200,7 +20034,7 @@
         <v>2.2719909788648999E-4</v>
       </c>
       <c r="N99" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -20244,7 +20078,7 @@
         <v>1.8771572276827299E-4</v>
       </c>
       <c r="N100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -20288,7 +20122,7 @@
         <v>1.4865084834444901E-4</v>
       </c>
       <c r="N101" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -20332,7 +20166,7 @@
         <v>2.1327195049931799E-4</v>
       </c>
       <c r="N102" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -20376,7 +20210,7 @@
         <v>1.68027552661559E-4</v>
       </c>
       <c r="N103" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -20420,7 +20254,7 @@
         <v>3.2551969124838798E-4</v>
       </c>
       <c r="N104" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -20464,7 +20298,7 @@
         <v>1.8399996160476401E-4</v>
       </c>
       <c r="N105" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -20508,7 +20342,7 @@
         <v>2.1898326531021299E-4</v>
       </c>
       <c r="N106" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -20552,7 +20386,7 @@
         <v>1.8991406989167501E-4</v>
       </c>
       <c r="N107" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -20650,7 +20484,7 @@
         <v>2.2220838940200101E-4</v>
       </c>
       <c r="N112" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -20694,7 +20528,7 @@
         <v>2.2349672548891401E-4</v>
       </c>
       <c r="N113" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -20738,7 +20572,7 @@
         <v>3.1460218850400497E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -20782,7 +20616,7 @@
         <v>2.6515182589434601E-4</v>
       </c>
       <c r="N115" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -20826,7 +20660,7 @@
         <v>1.60401740743266E-4</v>
       </c>
       <c r="N116" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -20870,7 +20704,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="N117" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -20914,7 +20748,7 @@
         <v>2.2332030421518499E-4</v>
       </c>
       <c r="N118" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -20958,7 +20792,7 @@
         <v>2.2719909788648999E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -21002,7 +20836,7 @@
         <v>1.7535538674177199E-4</v>
       </c>
       <c r="N120" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -21046,7 +20880,7 @@
         <v>2.7956335735427999E-4</v>
       </c>
       <c r="N121" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -21090,7 +20924,7 @@
         <v>2.4471096926649002E-4</v>
       </c>
       <c r="N122" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -21134,7 +20968,7 @@
         <v>2.5959157618222898E-4</v>
       </c>
       <c r="N123" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -21178,7 +21012,7 @@
         <v>2.05576721151061E-4</v>
       </c>
       <c r="N124" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -21222,7 +21056,7 @@
         <v>5.1791897820993701E-4</v>
       </c>
       <c r="N125" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -21266,7 +21100,7 @@
         <v>2.4524061876875501E-4</v>
       </c>
       <c r="N126" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -21310,7 +21144,7 @@
         <v>3.8586391074239102E-4</v>
       </c>
       <c r="N127" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -21408,7 +21242,7 @@
         <v>1.60401740743266E-4</v>
       </c>
       <c r="N132" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -21452,7 +21286,7 @@
         <v>1.43589840241788E-4</v>
       </c>
       <c r="N133" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -21496,7 +21330,7 @@
         <v>2.2332030421518499E-4</v>
       </c>
       <c r="N134" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -21540,7 +21374,7 @@
         <v>2.2719909788648999E-4</v>
       </c>
       <c r="N135" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -21584,7 +21418,7 @@
         <v>1.6776132871878E-4</v>
       </c>
       <c r="N136" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -21628,7 +21462,7 @@
         <v>1.5890158510891401E-4</v>
       </c>
       <c r="N137" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -21672,7 +21506,7 @@
         <v>2.3493119570513601E-4</v>
       </c>
       <c r="N138" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -21716,7 +21550,7 @@
         <v>2.8828534025891398E-4</v>
       </c>
       <c r="N139" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -21760,7 +21594,7 @@
         <v>1.8626473971956699E-4</v>
       </c>
       <c r="N140" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -21804,7 +21638,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="N141" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -21848,7 +21682,7 @@
         <v>2.08789906220047E-4</v>
       </c>
       <c r="N142" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -21892,7 +21726,7 @@
         <v>2.0450362394065799E-4</v>
       </c>
       <c r="N143" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -21936,7 +21770,7 @@
         <v>1.6543724403386399E-4</v>
       </c>
       <c r="N144" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -21980,7 +21814,7 @@
         <v>1.83496176351816E-4</v>
       </c>
       <c r="N145" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -22024,7 +21858,7 @@
         <v>2.17860682648756E-4</v>
       </c>
       <c r="N146" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -22068,7 +21902,7 @@
         <v>2.4198665578633799E-4</v>
       </c>
       <c r="N147" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -22112,7 +21946,7 @@
         <v>1.7147759779743399E-4</v>
       </c>
       <c r="N148" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -22156,7 +21990,7 @@
         <v>2.11120881399898E-4</v>
       </c>
       <c r="N149" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -22200,7 +22034,7 @@
         <v>2.4245945531023601E-4</v>
       </c>
       <c r="N150" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -22244,7 +22078,7 @@
         <v>3.01890064247103E-4</v>
       </c>
       <c r="N151" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -22288,7 +22122,7 @@
         <v>1.6411979602608701E-4</v>
       </c>
       <c r="N152" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -22332,7 +22166,7 @@
         <v>1.6481924384861401E-4</v>
       </c>
       <c r="N153" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -22376,7 +22210,7 @@
         <v>2.1815958455331899E-4</v>
       </c>
       <c r="N154" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -22420,12 +22254,12 @@
         <v>2.38668014987465E-4</v>
       </c>
       <c r="N155" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -22518,7 +22352,7 @@
         <v>1.8626473971956699E-4</v>
       </c>
       <c r="N160" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -22562,7 +22396,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="N161" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -22606,7 +22440,7 @@
         <v>2.08789906220047E-4</v>
       </c>
       <c r="N162" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -22650,7 +22484,7 @@
         <v>2.0450362394065799E-4</v>
       </c>
       <c r="N163" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -22694,7 +22528,7 @@
         <v>5.0167822621875204E-4</v>
       </c>
       <c r="N164" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -22738,7 +22572,7 @@
         <v>3.2510198952702199E-3</v>
       </c>
       <c r="N165" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -22782,7 +22616,7 @@
         <v>7.9634325398887196E-4</v>
       </c>
       <c r="N166" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -22826,7 +22660,7 @@
         <v>1.5827841854057401E-3</v>
       </c>
       <c r="N167" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -22870,7 +22704,7 @@
         <v>4.89892023037947E-4</v>
       </c>
       <c r="N168" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -22914,7 +22748,7 @@
         <v>4.6875706630300501E-4</v>
       </c>
       <c r="N169" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -22958,7 +22792,7 @@
         <v>4.79299993513467E-4</v>
       </c>
       <c r="N170" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -23002,12 +22836,12 @@
         <v>7.4694325366459098E-4</v>
       </c>
       <c r="N171" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -23100,7 +22934,7 @@
         <v>1.8626473971956699E-4</v>
       </c>
       <c r="N176" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -23144,7 +22978,7 @@
         <v>1.3196216284288101E-4</v>
       </c>
       <c r="N177" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -23188,7 +23022,7 @@
         <v>2.08789906220047E-4</v>
       </c>
       <c r="N178" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -23232,7 +23066,7 @@
         <v>2.0450362394065799E-4</v>
       </c>
       <c r="N179" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -23276,7 +23110,7 @@
         <v>1.6753414034365E-4</v>
       </c>
       <c r="N180" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -23320,7 +23154,7 @@
         <v>1.5704714191216399E-4</v>
       </c>
       <c r="N181" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -23364,7 +23198,7 @@
         <v>2.10310254096357E-4</v>
       </c>
       <c r="N182" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -23408,7 +23242,7 @@
         <v>1.8635667226631799E-4</v>
       </c>
       <c r="N183" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -23452,7 +23286,7 @@
         <v>2.0717938795484299E-4</v>
       </c>
       <c r="N184" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -23496,7 +23330,7 @@
         <v>2.1869851092911201E-4</v>
       </c>
       <c r="N185" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -23540,7 +23374,7 @@
         <v>2.3772603428691899E-4</v>
       </c>
       <c r="N186" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -23584,7 +23418,7 @@
         <v>3.49300517192129E-4</v>
       </c>
       <c r="N187" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -23628,7 +23462,7 @@
         <v>2.82244108904832E-4</v>
       </c>
       <c r="N188" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -23672,7 +23506,7 @@
         <v>1.7389954760559299E-4</v>
       </c>
       <c r="N189" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -23716,7 +23550,7 @@
         <v>2.70471828584021E-4</v>
       </c>
       <c r="N190" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -23760,12 +23594,12 @@
         <v>2.9039489195373399E-4</v>
       </c>
       <c r="N191" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -23858,7 +23692,7 @@
         <v>2.1443947079175099E-4</v>
       </c>
       <c r="N196" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -23902,7 +23736,7 @@
         <v>2.8970583381620002E-4</v>
       </c>
       <c r="N197" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -23946,7 +23780,7 @@
         <v>1.83036115604429E-4</v>
       </c>
       <c r="N198" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -23990,7 +23824,7 @@
         <v>1.2390196276805001E-3</v>
       </c>
       <c r="N199" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -24034,7 +23868,7 @@
         <v>1.6753414034365E-4</v>
       </c>
       <c r="N200" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -24078,7 +23912,7 @@
         <v>1.5704714191216399E-4</v>
       </c>
       <c r="N201" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -24122,7 +23956,7 @@
         <v>2.10310254096357E-4</v>
       </c>
       <c r="N202" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -24166,7 +24000,7 @@
         <v>1.8635667226631799E-4</v>
       </c>
       <c r="N203" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -24210,7 +24044,7 @@
         <v>1.5695293156586901E-4</v>
       </c>
       <c r="N204" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -24254,7 +24088,7 @@
         <v>1.68430428643523E-4</v>
       </c>
       <c r="N205" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -24298,7 +24132,7 @@
         <v>1.5763884901990699E-4</v>
       </c>
       <c r="N206" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -24342,7 +24176,7 @@
         <v>1.2515002457192699E-4</v>
       </c>
       <c r="N207" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -24386,7 +24220,7 @@
         <v>9.5897236797107103E-5</v>
       </c>
       <c r="N208" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
@@ -24430,7 +24264,7 @@
         <v>1.7253105081107501E-4</v>
       </c>
       <c r="N209" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
@@ -24474,7 +24308,7 @@
         <v>1.82162918620796E-4</v>
       </c>
       <c r="N210" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
@@ -24518,7 +24352,7 @@
         <v>1.50534083229802E-4</v>
       </c>
       <c r="N211" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
@@ -24562,7 +24396,7 @@
         <v>1.35195910868221E-4</v>
       </c>
       <c r="N212" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
@@ -24606,7 +24440,7 @@
         <v>1.0876934202715799E-4</v>
       </c>
       <c r="N213" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
@@ -24650,7 +24484,7 @@
         <v>1.24733172470138E-4</v>
       </c>
       <c r="N214" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
@@ -24694,7 +24528,7 @@
         <v>1.41451255802681E-4</v>
       </c>
       <c r="N215" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
@@ -24704,7 +24538,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
@@ -24797,7 +24631,7 @@
         <v>1.7475429269177701E-4</v>
       </c>
       <c r="N221" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
@@ -24841,7 +24675,7 @@
         <v>1.6261251150844801E-4</v>
       </c>
       <c r="N222" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
@@ -24885,7 +24719,7 @@
         <v>2.1351736607833701E-4</v>
       </c>
       <c r="N223" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
@@ -24929,7 +24763,7 @@
         <v>2.1072231151651001E-4</v>
       </c>
       <c r="N224" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -25022,7 +24856,7 @@
         <v>1.7475429269177701E-4</v>
       </c>
       <c r="N227" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -25066,7 +24900,7 @@
         <v>1.6261251150844801E-4</v>
       </c>
       <c r="N228" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -25110,7 +24944,7 @@
         <v>2.1351736607833701E-4</v>
       </c>
       <c r="N229" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -25154,7 +24988,7 @@
         <v>2.1072231151651001E-4</v>
       </c>
       <c r="N230" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -25198,7 +25032,7 @@
         <v>1.7514872178496201E-4</v>
       </c>
       <c r="N231" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -25242,7 +25076,7 @@
         <v>1.6712886663538799E-4</v>
       </c>
       <c r="N232" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -25286,7 +25120,7 @@
         <v>2.7152109748749398E-4</v>
       </c>
       <c r="N233" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -25330,7 +25164,7 @@
         <v>3.1135600336467398E-4</v>
       </c>
       <c r="N234" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -25374,7 +25208,7 @@
         <v>6.5955268405077597E-4</v>
       </c>
       <c r="N235" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -25418,7 +25252,7 @@
         <v>2.5022034934424402E-4</v>
       </c>
       <c r="N236" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -25462,7 +25296,7 @@
         <v>1.40745653146875E-4</v>
       </c>
       <c r="N237" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -25506,7 +25340,7 @@
         <v>1.9732515374919901E-4</v>
       </c>
       <c r="N238" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -25550,7 +25384,7 @@
         <v>2.2989536182581899E-4</v>
       </c>
       <c r="N239" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -25594,7 +25428,7 @@
         <v>1.5927218876124401E-4</v>
       </c>
       <c r="N240" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -25638,7 +25472,7 @@
         <v>1.7181156753434099E-4</v>
       </c>
       <c r="N241" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -25682,7 +25516,7 @@
         <v>3.9602417465225102E-4</v>
       </c>
       <c r="N242" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -25775,7 +25609,7 @@
         <v>1.44E-4</v>
       </c>
       <c r="N245" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -25819,7 +25653,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
       <c r="N246" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -25863,7 +25697,7 @@
         <v>3.3399999999999999E-4</v>
       </c>
       <c r="N247" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -25907,7 +25741,7 @@
         <v>1.0900000000000001E-4</v>
       </c>
       <c r="N248" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -26000,7 +25834,7 @@
         <v>1.0834485465652701E-4</v>
       </c>
       <c r="N251" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -26044,7 +25878,7 @@
         <v>1.72585792991209E-4</v>
       </c>
       <c r="N252" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -26088,7 +25922,7 @@
         <v>1.74700829749228E-4</v>
       </c>
       <c r="N253" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -26132,12 +25966,12 @@
         <v>1.6117817426067701E-4</v>
       </c>
       <c r="N254" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -26225,7 +26059,7 @@
         <v>1.44E-4</v>
       </c>
       <c r="N259" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -26269,7 +26103,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
       <c r="N260" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
@@ -26313,7 +26147,7 @@
         <v>3.3399999999999999E-4</v>
       </c>
       <c r="N261" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
@@ -26357,7 +26191,232 @@
         <v>1.0900000000000001E-4</v>
       </c>
       <c r="N262" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>3</v>
+      </c>
+      <c r="F265" t="s">
+        <v>4</v>
+      </c>
+      <c r="G265" t="s">
+        <v>5</v>
+      </c>
+      <c r="H265" t="s">
+        <v>6</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M265" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N265" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>708848</v>
+      </c>
+      <c r="E266">
+        <v>0.3</v>
+      </c>
+      <c r="F266">
+        <v>-0.43139688082615602</v>
+      </c>
+      <c r="G266">
+        <v>11.8509224853677</v>
+      </c>
+      <c r="H266">
+        <v>0.73657454414793599</v>
+      </c>
+      <c r="I266" s="3">
+        <v>40.340000000000103</v>
+      </c>
+      <c r="J266" s="3">
+        <v>10.079999999999901</v>
+      </c>
+      <c r="K266" s="2">
+        <v>2.3822557181119901E-2</v>
+      </c>
+      <c r="L266" s="2">
+        <v>2.4243234877987099E-2</v>
+      </c>
+      <c r="M266" s="2">
+        <v>1.4414395363978E-4</v>
+      </c>
+      <c r="N266" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>708156</v>
+      </c>
+      <c r="E267">
+        <v>0.3</v>
+      </c>
+      <c r="F267">
+        <v>0.87547858884185203</v>
+      </c>
+      <c r="G267">
+        <v>12.774010163620799</v>
+      </c>
+      <c r="H267">
+        <v>0.75022155503478904</v>
+      </c>
+      <c r="I267" s="3">
+        <v>42.4699999999998</v>
+      </c>
+      <c r="J267" s="3">
+        <v>10.8200000000001</v>
+      </c>
+      <c r="K267" s="2">
+        <v>2.41212416440248E-2</v>
+      </c>
+      <c r="L267" s="2">
+        <v>2.4473636939252402E-2</v>
+      </c>
+      <c r="M267" s="2">
+        <v>3.7148305782892999E-4</v>
+      </c>
+      <c r="N267" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268">
+        <v>707833</v>
+      </c>
+      <c r="E268">
+        <v>0.3</v>
+      </c>
+      <c r="F268">
+        <v>1.45327101518076</v>
+      </c>
+      <c r="G268">
+        <v>11.097530764003601</v>
+      </c>
+      <c r="H268">
+        <v>0.73986064820216002</v>
+      </c>
+      <c r="I268" s="3">
+        <v>69.389999999999802</v>
+      </c>
+      <c r="J268" s="3">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="K268" s="2">
+        <v>2.4190645664930299E-2</v>
+      </c>
+      <c r="L268" s="2">
+        <v>2.4457999036436098E-2</v>
+      </c>
+      <c r="M268" s="2">
+        <v>3.3366089300872599E-4</v>
+      </c>
+      <c r="N268" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>4</v>
+      </c>
+      <c r="D269">
+        <v>708738</v>
+      </c>
+      <c r="E269">
+        <v>0.3</v>
+      </c>
+      <c r="F269">
+        <v>0.26819511407359498</v>
+      </c>
+      <c r="G269">
+        <v>11.142542761430001</v>
+      </c>
+      <c r="H269">
+        <v>0.73896475596160005</v>
+      </c>
+      <c r="I269" s="3">
+        <v>41.829999999999899</v>
+      </c>
+      <c r="J269" s="3">
+        <v>10.6999999999998</v>
+      </c>
+      <c r="K269" s="2">
+        <v>2.3947400972247099E-2</v>
+      </c>
+      <c r="L269" s="2">
+        <v>2.42202902259641E-2</v>
+      </c>
+      <c r="M269" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="N269" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -26366,12 +26425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:P35"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26406,12 +26465,12 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -26521,7 +26580,7 @@
         <v>1.3140394678621301</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -26626,7 +26685,7 @@
         <v>2.0668250066763298</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -26739,7 +26798,7 @@
         <v>1.04921679822528</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -26844,7 +26903,7 @@
         <v>1.1967634973946</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -26954,7 +27013,7 @@
         <v>0.81745979222259002</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -27059,7 +27118,7 @@
         <v>1.0150042986049701</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -27169,7 +27228,7 @@
         <v>0.96238665290328096</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -27274,24 +27333,24 @@
         <v>1.3842075013797599</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -27390,7 +27449,112 @@
         <v>1.0150042986049701</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>59534</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>194.02999999999901</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.164153913607688</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.94063475413646502</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.99717644750243495</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1.13701682381572E-4</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.77100000000000302</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.35407645339687799</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1.36908075200185</v>
+      </c>
+      <c r="O44" s="5">
+        <v>1.0150042986049701</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -27399,12 +27563,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27440,12 +27604,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -27561,7 +27725,7 @@
         <v>1.9537642895677401</v>
       </c>
       <c r="Q8" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -27614,7 +27778,7 @@
         <v>0.37550767162468901</v>
       </c>
       <c r="Q9" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -27667,7 +27831,7 @@
         <v>1.6128464423939799</v>
       </c>
       <c r="Q10" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -27778,7 +27942,7 @@
         <v>2.89582139366233</v>
       </c>
       <c r="Q13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -27831,7 +27995,7 @@
         <v>1.16533045393943</v>
       </c>
       <c r="Q14" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -27884,7 +28048,7 @@
         <v>2.1393231724272201</v>
       </c>
       <c r="Q15" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -28003,7 +28167,7 @@
         <v>1.78612075544621</v>
       </c>
       <c r="Q20" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -28056,7 +28220,7 @@
         <v>0.29407871245807599</v>
       </c>
       <c r="Q21" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -28109,7 +28273,7 @@
         <v>1.0674509267715599</v>
       </c>
       <c r="Q22" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -28220,7 +28384,7 @@
         <v>1.7472700717724201</v>
       </c>
       <c r="Q25" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -28273,7 +28437,7 @@
         <v>0.70371666598956195</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -28326,7 +28490,7 @@
         <v>1.1393037544218401</v>
       </c>
       <c r="Q27" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -28467,7 +28631,7 @@
         <v>0.817144968124764</v>
       </c>
       <c r="Q44" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -28520,7 +28684,7 @@
         <v>1.3923727467790601</v>
       </c>
       <c r="Q45" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -28573,7 +28737,7 @@
         <v>0.67764224380601301</v>
       </c>
       <c r="Q46" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -28684,7 +28848,7 @@
         <v>0.95878365451686298</v>
       </c>
       <c r="Q49" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -28737,7 +28901,7 @@
         <v>1.61578103201648</v>
       </c>
       <c r="Q50" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -28790,12 +28954,12 @@
         <v>1.5780578176059401</v>
       </c>
       <c r="Q51" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -28901,7 +29065,7 @@
         <v>1.755166097</v>
       </c>
       <c r="Q56" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -28954,7 +29118,7 @@
         <v>1.0434632370000001</v>
       </c>
       <c r="Q57" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -29007,7 +29171,224 @@
         <v>1.550400129</v>
       </c>
       <c r="Q58" t="s">
-        <v>138</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>59534</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="H62" s="6">
+        <v>194.02999999999901</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.164153913607688</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.94063475413646502</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.99717644750243495</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1.13701682381572E-4</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.77100000000000302</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.41386039372997002</v>
+      </c>
+      <c r="O62" s="5">
+        <v>1.01633201291167</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.602471619181703</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>59534</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="H63" s="6">
+        <v>194.02999999999901</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.164153913607688</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.94063475413646502</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.99717644750243495</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.13701682381572E-4</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.77100000000000302</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.365434857858214</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.86649922968614</v>
+      </c>
+      <c r="P63" s="5">
+        <v>1.50106437182792</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>59534</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.09064088816566E-4</v>
+      </c>
+      <c r="H64" s="6">
+        <v>194.02999999999901</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.164153913607688</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.94063475413646502</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.99717644750243495</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1.13701682381572E-4</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.77100000000000302</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.28293410860245</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1.2244110134077499</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.94147690480530699</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
